--- a/biology/Zoologie/La_Ferme_aux_crocodiles/La_Ferme_aux_crocodiles.xlsx
+++ b/biology/Zoologie/La_Ferme_aux_crocodiles/La_Ferme_aux_crocodiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Ferme aux crocodiles est un parc zoologique français principalement consacré aux crocodiliens, situé à Pierrelatte, dans la Drôme. Créée en 1994 par Luc et Eric Fougeirol. Elle est constituée d'une serre tropicale de 8 000 m2 et d'un parcours extérieur de 4 000 m2, où l'on peut observer douze des vingt-trois espèces de crocodiliens recensées[1] dans le monde mais également divers squamates, oiseaux et poissons tropicaux. Elle accueille quatre espèces autochtones de France : le caïman à lunettes et l'Anaconda vert, présents en Guyane, ainsi que la cistude d'Europe et le héron garde-bœufs, présents en France métropolitaine[2].
+La Ferme aux crocodiles est un parc zoologique français principalement consacré aux crocodiliens, situé à Pierrelatte, dans la Drôme. Créée en 1994 par Luc et Eric Fougeirol. Elle est constituée d'une serre tropicale de 8 000 m2 et d'un parcours extérieur de 4 000 m2, où l'on peut observer douze des vingt-trois espèces de crocodiliens recensées dans le monde mais également divers squamates, oiseaux et poissons tropicaux. Elle accueille quatre espèces autochtones de France : le caïman à lunettes et l'Anaconda vert, présents en Guyane, ainsi que la cistude d'Europe et le héron garde-bœufs, présents en France métropolitaine.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En juillet 1991, 335 crocodiles du Nil ont été importés d'une ferme d'élevage d'Afrique du Sud. Depuis, la reproduction de cette espèce a été régulée de manière à ne pas provoquer une surpopulation.
-Inaugurée en juillet 1994, ce site permet de faire évoluer les espèces dans un climat tropical au sein d'une serre, chauffée grâce à l'eau chaude issue du circuit de refroidissement des compresseurs de l'usine d'enrichissement Eurodif[3]. Depuis 2012, à la suite de la fermeture de l'usine Eurodif, la Ferme aux Crocodiles est chauffée par une centrale de cogénération à bois.
+Inaugurée en juillet 1994, ce site permet de faire évoluer les espèces dans un climat tropical au sein d'une serre, chauffée grâce à l'eau chaude issue du circuit de refroidissement des compresseurs de l'usine d'enrichissement Eurodif. Depuis 2012, à la suite de la fermeture de l'usine Eurodif, la Ferme aux Crocodiles est chauffée par une centrale de cogénération à bois.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Installations et espèces présentées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet espace abrite, en plus de la faune, une flore tropicale particulière composée de 600 espèces végétales (plantes carnivores, fougères tropicales, orchidées, etc.) mais aussi de nombreux arbres fruitiers tropicaux comme le bananier, le papayer ou le manguier.
 En 2006, la surface de la serre a été portée de 6 500 m2 à 8 000 m2.
@@ -610,7 +626,9 @@
           <t>Activité du site</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Jusqu'en 2006, La Ferme aux Crocodiles a été partie prenante dans un projet de protection du gavial du Gange, le Gharial conservation project. Celui-ci a consisté à créer une réserve protégée pour ré-introduire et permettre la survie de cette espèce menacée au Népal.
 Venus des bayous de Louisiane (USA), deux alligators albinos ont traversé l'Atlantique et sont arrivés à la ferme en février 2010, permettant aux chercheurs d'en apprendre davantage sur les particularités de l'albinisme chez les crocodiliens.
@@ -648,7 +666,9 @@
           <t>Visite</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Des guides naturalistes répondent aux questions du public tout le long du parcours, et des affichettes d'explication, sont disposées sur le circuit.
 Le site propose régulièrement des expositions de photographies sur le thème de la nature comme les Baobabs du W, l'expédition aux Galápagos ou les crocodiles des 5 continents, ainsi que des sculptures et reproductions grandeur nature, à l'image de la reconstitution du Sarcosuchus imperator, le plus grand crocodile du monde.
